--- a/resources/forward-stationing.xlsx
+++ b/resources/forward-stationing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyRecords" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="654">
   <si>
     <t xml:space="preserve">TimeStamp</t>
   </si>
@@ -464,6 +464,51 @@
   </si>
   <si>
     <t xml:space="preserve">{:t2 82, :t3 68}; the :cyclelength delta indicates that we'll use a custom finite cycle length goal for computing normalized dwell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VizDemo_FullSurge_AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VizDemo_RC_1:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAA22-26_RCSurge_40_68_2529_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Reset" -364, "Train" -338, "Ready" -690, "Available" 9999999, :expected-dwell 85}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxUtilization_BOG_Forever_NoRecovery_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAA_25_29_RC_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Reset" -60, "Train" -30, "Ready" -60, "Available" -30, "Deployed" -30}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAA_25_29_AC_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Reset" -2, "Train" -3, "Ready" -5, "Available" -125}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAA_25_29_AC_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Reset" -60, "Train" -65, "Available" -125}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAA_25_29_RC_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Reset" -30, "Train" -60, "Available" -30, "Deployed" -30}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAA22-26_RCSurge_Default_2529_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Reset" -355, "Train" -314, "Ready" -661, "Available" 9999999, :expected-dwell 163}</t>
   </si>
   <si>
     <t xml:space="preserve">CompositeName</t>
@@ -2245,15 +2290,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N95" activeCellId="0" sqref="N95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.44"/>
@@ -2268,7 +2311,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="33.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="33.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15"/>
   </cols>
   <sheetData>
@@ -6479,7 +6522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="50.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="18.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
         <v>42819.6637488426</v>
       </c>
@@ -6524,13 +6567,409 @@
       </c>
       <c r="O96" s="5" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>42819.6637488426</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>1095</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>1130</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>1095</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N97" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
+        <v>42819.6637488426</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>1095</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>730</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>730</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <v>1095</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N98" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
+        <v>42819.6637488426</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N99" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
+        <v>42819.6637488426</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N100" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
+        <v>42819.6637488426</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>1675</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>1675</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N101" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
+        <v>42819.6637488426</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N102" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
+        <v>42819.6637488426</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N103" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
+        <v>42819.6637488426</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>1340</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>1005</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>1005</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <v>1340</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N104" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
+        <v>42819.6637488426</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" s="0" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N105" s="0" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O91"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6546,11 +6985,11 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.16"/>
@@ -6565,836 +7004,836 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>117</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>123</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>119</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>116</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>121</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>97</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>110</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>110</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>117</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>118</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>119</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>117</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>117</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>117</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -7419,37 +7858,37 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -7458,18 +7897,18 @@
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -7478,18 +7917,18 @@
         <v>721</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>722</v>
@@ -7498,30 +7937,30 @@
         <v>1800</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1801</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7543,10 +7982,10 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.56"/>
@@ -7554,15 +7993,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -7570,12 +8009,12 @@
     </row>
     <row r="3" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>365</v>
@@ -7583,7 +8022,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -7591,7 +8030,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -7599,42 +8038,42 @@
     </row>
     <row r="7" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>42820.546861875</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>43</v>
@@ -7642,15 +8081,15 @@
     </row>
     <row r="12" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>18</v>
@@ -7659,7 +8098,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>30</v>
@@ -7668,7 +8107,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>30</v>
@@ -7677,7 +8116,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>43</v>
@@ -7686,23 +8125,23 @@
     </row>
     <row r="17" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B18" s="9"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B19" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -7711,26 +8150,26 @@
     </row>
     <row r="20" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -7751,11 +8190,11 @@
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
   </cols>
@@ -7765,60 +8204,60 @@
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B2" s="15" t="n">
         <f aca="false">TRUE()</f>
@@ -7843,39 +8282,39 @@
         <v>45</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="O2" s="15" t="n">
         <v>10</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>3</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B3" s="15" t="n">
         <f aca="false">TRUE()</f>
@@ -7900,34 +8339,34 @@
         <v>45</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="O3" s="15" t="n">
         <v>10</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>3</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -7952,7 +8391,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="73.96"/>
@@ -7964,57 +8403,57 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8024,13 +8463,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
@@ -8045,7 +8484,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>0</v>
@@ -8057,19 +8496,19 @@
         <v>19</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="P2" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8079,13 +8518,13 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
@@ -8112,19 +8551,19 @@
         <v>19</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="P3" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8134,13 +8573,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>19</v>
@@ -8167,14 +8606,14 @@
         <v>19</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8880,26 +9319,26 @@
       <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -8924,7 +9363,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.28"/>
   </cols>
@@ -8934,34 +9373,34 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -8975,14 +9414,14 @@
     </row>
     <row r="3" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -8996,14 +9435,14 @@
     </row>
     <row r="4" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -9017,14 +9456,14 @@
     </row>
     <row r="5" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0.733333333333333</v>
@@ -9038,14 +9477,14 @@
     </row>
     <row r="6" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -9059,14 +9498,14 @@
     </row>
     <row r="7" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -9080,14 +9519,14 @@
     </row>
     <row r="8" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
@@ -9101,14 +9540,14 @@
     </row>
     <row r="9" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
@@ -9122,14 +9561,14 @@
     </row>
     <row r="10" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
@@ -9143,14 +9582,14 @@
     </row>
     <row r="11" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -9164,14 +9603,14 @@
     </row>
     <row r="12" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
@@ -9185,14 +9624,14 @@
     </row>
     <row r="13" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -9206,14 +9645,14 @@
     </row>
     <row r="14" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
@@ -9227,14 +9666,14 @@
     </row>
     <row r="15" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
@@ -9248,14 +9687,14 @@
     </row>
     <row r="16" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0.5</v>
@@ -9269,14 +9708,14 @@
     </row>
     <row r="17" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0.333333333333333</v>
@@ -9290,14 +9729,14 @@
     </row>
     <row r="18" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
@@ -9311,14 +9750,14 @@
     </row>
     <row r="19" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
@@ -9332,14 +9771,14 @@
     </row>
     <row r="20" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
@@ -9353,14 +9792,14 @@
     </row>
     <row r="21" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
@@ -9374,14 +9813,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
@@ -9395,14 +9834,14 @@
     </row>
     <row r="23" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
@@ -9416,14 +9855,14 @@
     </row>
     <row r="24" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
@@ -9437,14 +9876,14 @@
     </row>
     <row r="25" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
@@ -9458,14 +9897,14 @@
     </row>
     <row r="26" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -9479,14 +9918,14 @@
     </row>
     <row r="27" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
@@ -9500,14 +9939,14 @@
     </row>
     <row r="28" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
@@ -9521,14 +9960,14 @@
     </row>
     <row r="29" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1</v>
@@ -9542,14 +9981,14 @@
     </row>
     <row r="30" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>0</v>
@@ -9563,14 +10002,14 @@
     </row>
     <row r="31" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>0</v>
@@ -9584,14 +10023,14 @@
     </row>
     <row r="32" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>0</v>
@@ -9605,14 +10044,14 @@
     </row>
     <row r="33" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0.228915662650602</v>
@@ -9626,14 +10065,14 @@
     </row>
     <row r="34" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B34" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0.314285714285714</v>
@@ -9647,14 +10086,14 @@
     </row>
     <row r="35" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B35" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0.280898876404494</v>
@@ -9668,14 +10107,14 @@
     </row>
     <row r="36" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B36" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0.189873417721519</v>
@@ -9689,14 +10128,14 @@
     </row>
     <row r="37" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B37" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1</v>
@@ -9710,14 +10149,14 @@
     </row>
     <row r="38" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B38" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1</v>
@@ -9731,14 +10170,14 @@
     </row>
     <row r="39" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B39" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>0.326086956521739</v>
@@ -9752,14 +10191,14 @@
     </row>
     <row r="40" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B40" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1</v>
@@ -9773,14 +10212,14 @@
     </row>
     <row r="41" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B41" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0.227272727272727</v>
@@ -9794,14 +10233,14 @@
     </row>
     <row r="42" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B42" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0</v>
@@ -9815,14 +10254,14 @@
     </row>
     <row r="43" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B43" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0</v>
@@ -9836,14 +10275,14 @@
     </row>
     <row r="44" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B44" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>0.25</v>
@@ -9857,14 +10296,14 @@
     </row>
     <row r="45" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B45" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>0.714285714285714</v>
@@ -9878,14 +10317,14 @@
     </row>
     <row r="46" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B46" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>0</v>
@@ -9899,14 +10338,14 @@
     </row>
     <row r="47" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B47" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>0.666666666666667</v>
@@ -9920,14 +10359,14 @@
     </row>
     <row r="48" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B48" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>0.321428571428571</v>
@@ -9941,14 +10380,14 @@
     </row>
     <row r="49" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B49" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>0.777777777777778</v>
@@ -9962,14 +10401,14 @@
     </row>
     <row r="50" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B50" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>1</v>
@@ -9983,14 +10422,14 @@
     </row>
     <row r="51" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B51" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>0.25</v>
@@ -10004,14 +10443,14 @@
     </row>
     <row r="52" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B52" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>0.158730158730159</v>
@@ -10025,14 +10464,14 @@
     </row>
     <row r="53" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B53" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>0</v>
@@ -10046,14 +10485,14 @@
     </row>
     <row r="54" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B54" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>0.222222222222222</v>
@@ -10067,14 +10506,14 @@
     </row>
     <row r="55" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B55" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>0.146341463414634</v>
@@ -10088,14 +10527,14 @@
     </row>
     <row r="56" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B56" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>0.428571428571429</v>
@@ -10109,14 +10548,14 @@
     </row>
     <row r="57" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B57" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>0</v>
@@ -10130,14 +10569,14 @@
     </row>
     <row r="58" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B58" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>0.103448275862069</v>
@@ -10151,14 +10590,14 @@
     </row>
     <row r="59" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B59" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>0.16</v>
@@ -10172,14 +10611,14 @@
     </row>
     <row r="60" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B60" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>0.173913043478261</v>
@@ -10193,14 +10632,14 @@
     </row>
     <row r="61" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B61" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>0</v>
@@ -10214,14 +10653,14 @@
     </row>
     <row r="62" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B62" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>0.0769230769230769</v>
@@ -10235,14 +10674,14 @@
     </row>
     <row r="63" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B63" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>0</v>
@@ -10256,14 +10695,14 @@
     </row>
     <row r="64" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B64" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>0</v>
@@ -10277,14 +10716,14 @@
     </row>
     <row r="65" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B65" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>0</v>
@@ -10298,14 +10737,14 @@
     </row>
     <row r="66" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B66" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>0</v>
@@ -10319,14 +10758,14 @@
     </row>
     <row r="67" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B67" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>0</v>
@@ -10340,14 +10779,14 @@
     </row>
     <row r="68" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B68" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>1</v>
@@ -10361,14 +10800,14 @@
     </row>
     <row r="69" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B69" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>0</v>
@@ -10382,14 +10821,14 @@
     </row>
     <row r="70" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B70" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>0</v>
@@ -10403,14 +10842,14 @@
     </row>
     <row r="71" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B71" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>1</v>
@@ -10424,14 +10863,14 @@
     </row>
     <row r="72" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B72" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>1</v>
@@ -10445,14 +10884,14 @@
     </row>
     <row r="73" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B73" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>0</v>
@@ -10466,14 +10905,14 @@
     </row>
     <row r="74" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B74" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>0.285714285714286</v>
@@ -10487,14 +10926,14 @@
     </row>
     <row r="75" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B75" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>0.285714285714286</v>
@@ -10508,14 +10947,14 @@
     </row>
     <row r="76" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B76" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>0</v>
@@ -10529,14 +10968,14 @@
     </row>
     <row r="77" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B77" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>0.285714285714286</v>
@@ -10550,14 +10989,14 @@
     </row>
     <row r="78" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B78" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>1</v>
@@ -10571,14 +11010,14 @@
     </row>
     <row r="79" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B79" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
@@ -10592,14 +11031,14 @@
     </row>
     <row r="80" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B80" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>0</v>
@@ -10613,14 +11052,14 @@
     </row>
     <row r="81" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B81" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>1</v>
@@ -10634,14 +11073,14 @@
     </row>
     <row r="82" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B82" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
@@ -10655,14 +11094,14 @@
     </row>
     <row r="83" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B83" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>0.321428571428571</v>
@@ -10676,14 +11115,14 @@
     </row>
     <row r="84" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B84" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>1</v>
@@ -10697,14 +11136,14 @@
     </row>
     <row r="85" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B85" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>0.777777777777778</v>
@@ -10718,14 +11157,14 @@
     </row>
     <row r="86" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B86" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>1</v>
@@ -10739,14 +11178,14 @@
     </row>
     <row r="87" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B87" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>1</v>
@@ -10760,14 +11199,14 @@
     </row>
     <row r="88" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B88" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>0.666666666666667</v>
@@ -10781,14 +11220,14 @@
     </row>
     <row r="89" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B89" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>0</v>
@@ -10802,14 +11241,14 @@
     </row>
     <row r="90" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B90" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>0.333333333333333</v>
@@ -10823,14 +11262,14 @@
     </row>
     <row r="91" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B91" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>0</v>
@@ -10844,14 +11283,14 @@
     </row>
     <row r="92" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B92" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>0.75</v>
@@ -10865,14 +11304,14 @@
     </row>
     <row r="93" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B93" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>0.294117647058824</v>
@@ -10886,14 +11325,14 @@
     </row>
     <row r="94" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B94" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0.666666666666667</v>
@@ -10907,14 +11346,14 @@
     </row>
     <row r="95" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B95" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>0.666666666666667</v>
@@ -10928,14 +11367,14 @@
     </row>
     <row r="96" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B96" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>0.702127659574468</v>
@@ -10949,14 +11388,14 @@
     </row>
     <row r="97" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B97" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>0.777777777777778</v>
@@ -10970,14 +11409,14 @@
     </row>
     <row r="98" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B98" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>0.297619047619048</v>
@@ -10991,14 +11430,14 @@
     </row>
     <row r="99" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B99" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>0.916666666666667</v>
@@ -11012,14 +11451,14 @@
     </row>
     <row r="100" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B100" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>0.666666666666667</v>
@@ -11033,14 +11472,14 @@
     </row>
     <row r="101" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B101" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>0.666666666666667</v>
@@ -11054,14 +11493,14 @@
     </row>
     <row r="102" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B102" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>1</v>
@@ -11075,14 +11514,14 @@
     </row>
     <row r="103" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B103" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>1</v>
@@ -11096,14 +11535,14 @@
     </row>
     <row r="104" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B104" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>1</v>
@@ -11117,14 +11556,14 @@
     </row>
     <row r="105" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B105" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>0.368421052631579</v>
@@ -11138,14 +11577,14 @@
     </row>
     <row r="106" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B106" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>0</v>
@@ -11159,14 +11598,14 @@
     </row>
     <row r="107" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B107" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>0.333333333333333</v>
@@ -11180,14 +11619,14 @@
     </row>
     <row r="108" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B108" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>0.333333333333333</v>
@@ -11201,14 +11640,14 @@
     </row>
     <row r="109" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B109" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>0.714285714285714</v>
@@ -11222,14 +11661,14 @@
     </row>
     <row r="110" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B110" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>0.173913043478261</v>
@@ -11243,14 +11682,14 @@
     </row>
     <row r="111" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B111" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>0.245614035087719</v>
@@ -11264,14 +11703,14 @@
     </row>
     <row r="112" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B112" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>0.263157894736842</v>
@@ -11285,14 +11724,14 @@
     </row>
     <row r="113" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B113" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>0.4</v>
@@ -11306,14 +11745,14 @@
     </row>
     <row r="114" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B114" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>0.272727272727273</v>
@@ -11327,14 +11766,14 @@
     </row>
     <row r="115" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B115" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>0.238095238095238</v>
@@ -11348,14 +11787,14 @@
     </row>
     <row r="116" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B116" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>0.272727272727273</v>
@@ -11369,14 +11808,14 @@
     </row>
     <row r="117" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B117" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>0.333333333333333</v>
@@ -11390,14 +11829,14 @@
     </row>
     <row r="118" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B118" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>0.405405405405405</v>
@@ -11411,14 +11850,14 @@
     </row>
     <row r="119" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B119" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
@@ -11432,14 +11871,14 @@
     </row>
     <row r="120" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B120" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>0.636363636363636</v>
@@ -11453,14 +11892,14 @@
     </row>
     <row r="121" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B121" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>0</v>
@@ -11474,14 +11913,14 @@
     </row>
     <row r="122" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B122" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>0.5</v>
@@ -11495,14 +11934,14 @@
     </row>
     <row r="123" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B123" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>0.5</v>
@@ -11516,14 +11955,14 @@
     </row>
     <row r="124" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B124" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>1</v>
@@ -11537,14 +11976,14 @@
     </row>
     <row r="125" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B125" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>1</v>
@@ -11558,14 +11997,14 @@
     </row>
     <row r="126" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B126" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>0</v>
@@ -11579,14 +12018,14 @@
     </row>
     <row r="127" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B127" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>0.454545454545455</v>
@@ -11600,14 +12039,14 @@
     </row>
     <row r="128" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B128" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>0.428571428571429</v>
@@ -11621,14 +12060,14 @@
     </row>
     <row r="129" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B129" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>0.36</v>
@@ -11642,14 +12081,14 @@
     </row>
     <row r="130" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B130" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>0.285714285714286</v>
@@ -11663,14 +12102,14 @@
     </row>
     <row r="131" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B131" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>0.314285714285714</v>
@@ -11684,14 +12123,14 @@
     </row>
     <row r="132" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B132" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>1</v>
@@ -11705,14 +12144,14 @@
     </row>
     <row r="133" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B133" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>0.666666666666667</v>
@@ -11726,14 +12165,14 @@
     </row>
     <row r="134" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B134" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>0.31578947368421</v>
@@ -11747,14 +12186,14 @@
     </row>
     <row r="135" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B135" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>0.264150943396226</v>
@@ -11768,14 +12207,14 @@
     </row>
     <row r="136" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B136" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>0.72</v>
@@ -11789,14 +12228,14 @@
     </row>
     <row r="137" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B137" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>0.723684210526316</v>
@@ -11810,14 +12249,14 @@
     </row>
     <row r="138" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B138" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>1</v>
@@ -11831,14 +12270,14 @@
     </row>
     <row r="139" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B139" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>1</v>
@@ -11852,14 +12291,14 @@
     </row>
     <row r="140" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B140" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>0.666666666666667</v>
@@ -11873,14 +12312,14 @@
     </row>
     <row r="141" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B141" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>1</v>
@@ -11894,14 +12333,14 @@
     </row>
     <row r="142" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B142" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>1</v>
@@ -11915,14 +12354,14 @@
     </row>
     <row r="143" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B143" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>1</v>
@@ -11936,14 +12375,14 @@
     </row>
     <row r="144" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B144" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>0</v>
@@ -11957,14 +12396,14 @@
     </row>
     <row r="145" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B145" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>0</v>
@@ -11978,14 +12417,14 @@
     </row>
     <row r="146" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B146" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>0.129032258064516</v>
@@ -11999,14 +12438,14 @@
     </row>
     <row r="147" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B147" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>0.0714285714285714</v>
@@ -12020,14 +12459,14 @@
     </row>
     <row r="148" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B148" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>0.0384615384615385</v>
@@ -12041,14 +12480,14 @@
     </row>
     <row r="149" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B149" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>0.619047619047619</v>
@@ -12062,14 +12501,14 @@
     </row>
     <row r="150" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B150" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>0.619047619047619</v>
@@ -12083,14 +12522,14 @@
     </row>
     <row r="151" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B151" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>0.25</v>
@@ -12104,14 +12543,14 @@
     </row>
     <row r="152" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B152" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>0.0625</v>
@@ -12125,14 +12564,14 @@
     </row>
     <row r="153" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B153" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>0.0625</v>
@@ -12146,14 +12585,14 @@
     </row>
     <row r="154" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B154" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>0.0625</v>
@@ -12167,14 +12606,14 @@
     </row>
     <row r="155" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B155" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>1</v>
@@ -12188,14 +12627,14 @@
     </row>
     <row r="156" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B156" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>0.25</v>
@@ -12209,14 +12648,14 @@
     </row>
     <row r="157" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B157" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>0.2</v>
@@ -12230,14 +12669,14 @@
     </row>
     <row r="158" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B158" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>0.4</v>
@@ -12251,14 +12690,14 @@
     </row>
     <row r="159" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B159" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>0.25</v>
@@ -12272,14 +12711,14 @@
     </row>
     <row r="160" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B160" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>0.25</v>
@@ -12293,14 +12732,14 @@
     </row>
     <row r="161" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B161" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>0.2</v>
@@ -12314,14 +12753,14 @@
     </row>
     <row r="162" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B162" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>0.333333333333333</v>
@@ -12335,14 +12774,14 @@
     </row>
     <row r="163" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B163" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>0.0952380952380952</v>
@@ -12356,14 +12795,14 @@
     </row>
     <row r="164" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B164" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>1</v>
@@ -12377,14 +12816,14 @@
     </row>
     <row r="165" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B165" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>0.0384615384615385</v>
@@ -12398,14 +12837,14 @@
     </row>
     <row r="166" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B166" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>0.0384615384615385</v>
@@ -12419,14 +12858,14 @@
     </row>
     <row r="167" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B167" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>0</v>
@@ -12440,14 +12879,14 @@
     </row>
     <row r="168" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B168" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>0</v>
@@ -12461,14 +12900,14 @@
     </row>
     <row r="169" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B169" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>0.444444444444444</v>
@@ -12482,14 +12921,14 @@
     </row>
     <row r="170" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B170" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>0.235294117647059</v>
@@ -12503,14 +12942,14 @@
     </row>
     <row r="171" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B171" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>0.234042553191489</v>
@@ -12524,14 +12963,14 @@
     </row>
     <row r="172" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B172" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>0.230769230769231</v>
@@ -12545,14 +12984,14 @@
     </row>
     <row r="173" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B173" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>0.428571428571429</v>
@@ -12566,14 +13005,14 @@
     </row>
     <row r="174" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B174" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>0.5</v>
@@ -12587,14 +13026,14 @@
     </row>
     <row r="175" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B175" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>0.666666666666667</v>
@@ -12608,14 +13047,14 @@
     </row>
     <row r="176" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B176" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>0.44</v>
@@ -12629,14 +13068,14 @@
     </row>
     <row r="177" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B177" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>0.379310344827586</v>
@@ -12650,14 +13089,14 @@
     </row>
     <row r="178" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B178" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>0</v>
@@ -12671,14 +13110,14 @@
     </row>
     <row r="179" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B179" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>0.6</v>
@@ -12692,14 +13131,14 @@
     </row>
     <row r="180" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B180" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>0.285714285714286</v>
@@ -12713,14 +13152,14 @@
     </row>
     <row r="181" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B181" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>0.138297872340426</v>
@@ -12734,14 +13173,14 @@
     </row>
     <row r="182" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B182" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>0.379310344827586</v>
@@ -12755,14 +13194,14 @@
     </row>
     <row r="183" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B183" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>1</v>
@@ -12776,14 +13215,14 @@
     </row>
     <row r="184" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B184" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>0.6</v>
@@ -12797,14 +13236,14 @@
     </row>
     <row r="185" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B185" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>0.733333333333333</v>
@@ -12818,14 +13257,14 @@
     </row>
     <row r="186" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B186" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>0</v>
@@ -12839,14 +13278,14 @@
     </row>
     <row r="187" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B187" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>0</v>
@@ -12860,14 +13299,14 @@
     </row>
     <row r="188" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B188" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>0.428571428571429</v>
@@ -12881,14 +13320,14 @@
     </row>
     <row r="189" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B189" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>0</v>
@@ -12902,14 +13341,14 @@
     </row>
     <row r="190" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B190" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>0</v>
@@ -12923,14 +13362,14 @@
     </row>
     <row r="191" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B191" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>0</v>
@@ -12944,14 +13383,14 @@
     </row>
     <row r="192" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B192" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>0</v>
@@ -12965,14 +13404,14 @@
     </row>
     <row r="193" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B193" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>0.777777777777778</v>
@@ -12986,14 +13425,14 @@
     </row>
     <row r="194" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B194" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>0.321428571428571</v>
@@ -13007,14 +13446,14 @@
     </row>
     <row r="195" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B195" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>1</v>
@@ -13028,14 +13467,14 @@
     </row>
     <row r="196" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B196" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>0.666666666666667</v>
@@ -13049,14 +13488,14 @@
     </row>
     <row r="197" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B197" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>0.285714285714286</v>
@@ -13070,14 +13509,14 @@
     </row>
     <row r="198" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B198" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>0.273224043715847</v>
@@ -13091,14 +13530,14 @@
     </row>
     <row r="199" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B199" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>0.288888888888889</v>
@@ -13112,14 +13551,14 @@
     </row>
     <row r="200" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B200" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>0.954545454545455</v>
@@ -13133,14 +13572,14 @@
     </row>
     <row r="201" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B201" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>0.976190476190476</v>
@@ -13154,14 +13593,14 @@
     </row>
     <row r="202" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B202" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>0.972972972972973</v>
@@ -13175,14 +13614,14 @@
     </row>
     <row r="203" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B203" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>0</v>
@@ -13196,14 +13635,14 @@
     </row>
     <row r="204" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B204" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>0</v>
@@ -13217,14 +13656,14 @@
     </row>
     <row r="205" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B205" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>0</v>
@@ -13238,14 +13677,14 @@
     </row>
     <row r="206" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B206" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>0.153846153846154</v>
@@ -13259,14 +13698,14 @@
     </row>
     <row r="207" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B207" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>0.2</v>
@@ -13280,14 +13719,14 @@
     </row>
     <row r="208" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B208" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>0.537037037037037</v>
@@ -13301,14 +13740,14 @@
     </row>
     <row r="209" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B209" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>1</v>
@@ -13322,14 +13761,14 @@
     </row>
     <row r="210" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B210" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>0.666666666666667</v>
@@ -13343,14 +13782,14 @@
     </row>
     <row r="211" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B211" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>0.653061224489796</v>
@@ -13364,14 +13803,14 @@
     </row>
     <row r="212" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B212" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>0.166666666666667</v>
@@ -13385,14 +13824,14 @@
     </row>
     <row r="213" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B213" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>0.0344827586206897</v>
@@ -13406,14 +13845,14 @@
     </row>
     <row r="214" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B214" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>0</v>
@@ -13427,14 +13866,14 @@
     </row>
     <row r="215" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B215" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>1</v>
@@ -13448,14 +13887,14 @@
     </row>
     <row r="216" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B216" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>0</v>
@@ -13469,14 +13908,14 @@
     </row>
     <row r="217" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B217" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>0</v>
@@ -13490,14 +13929,14 @@
     </row>
     <row r="218" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B218" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>0</v>
@@ -13511,14 +13950,14 @@
     </row>
     <row r="219" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B219" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>0</v>
@@ -13532,14 +13971,14 @@
     </row>
     <row r="220" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B220" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>0</v>
@@ -13553,14 +13992,14 @@
     </row>
     <row r="221" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B221" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>0</v>
@@ -13574,14 +14013,14 @@
     </row>
     <row r="222" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B222" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>0</v>
@@ -13595,14 +14034,14 @@
     </row>
     <row r="223" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B223" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>0</v>
@@ -13616,14 +14055,14 @@
     </row>
     <row r="224" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B224" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>0</v>
@@ -13637,14 +14076,14 @@
     </row>
     <row r="225" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B225" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>0</v>
@@ -13658,14 +14097,14 @@
     </row>
     <row r="226" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B226" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>0</v>
@@ -13679,14 +14118,14 @@
     </row>
     <row r="227" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B227" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>0</v>
@@ -13700,14 +14139,14 @@
     </row>
     <row r="228" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B228" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>0</v>
@@ -13721,14 +14160,14 @@
     </row>
     <row r="229" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B229" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>0</v>
@@ -13742,14 +14181,14 @@
     </row>
     <row r="230" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B230" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>0</v>
@@ -13763,14 +14202,14 @@
     </row>
     <row r="231" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B231" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>0.272727272727273</v>
@@ -13784,14 +14223,14 @@
     </row>
     <row r="232" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B232" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>0.254901960784314</v>
@@ -13805,14 +14244,14 @@
     </row>
     <row r="233" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B233" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>0.276595744680851</v>
@@ -13826,14 +14265,14 @@
     </row>
     <row r="234" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B234" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D234" s="0" t="n">
         <v>1</v>
@@ -13847,14 +14286,14 @@
     </row>
     <row r="235" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B235" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="D235" s="0" t="n">
         <v>0</v>
@@ -13868,14 +14307,14 @@
     </row>
     <row r="236" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B236" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="D236" s="0" t="n">
         <v>0</v>
@@ -13889,14 +14328,14 @@
     </row>
     <row r="237" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B237" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="D237" s="0" t="n">
         <v>0.857142857142857</v>
@@ -13910,14 +14349,14 @@
     </row>
     <row r="238" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B238" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="D238" s="0" t="n">
         <v>0.857142857142857</v>
@@ -13931,14 +14370,14 @@
     </row>
     <row r="239" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B239" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D239" s="0" t="n">
         <v>1</v>
@@ -13952,14 +14391,14 @@
     </row>
     <row r="240" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B240" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="D240" s="0" t="n">
         <v>0.166666666666667</v>
@@ -13973,14 +14412,14 @@
     </row>
     <row r="241" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B241" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="D241" s="0" t="n">
         <v>1</v>
@@ -13994,14 +14433,14 @@
     </row>
     <row r="242" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B242" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="D242" s="0" t="n">
         <v>1</v>
@@ -14015,14 +14454,14 @@
     </row>
     <row r="243" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B243" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="D243" s="0" t="n">
         <v>1</v>
@@ -14036,14 +14475,14 @@
     </row>
     <row r="244" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B244" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="D244" s="0" t="n">
         <v>1</v>
@@ -14057,14 +14496,14 @@
     </row>
     <row r="245" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B245" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="D245" s="0" t="n">
         <v>1</v>
@@ -14078,14 +14517,14 @@
     </row>
     <row r="246" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B246" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D246" s="0" t="n">
         <v>0.5</v>
@@ -14099,14 +14538,14 @@
     </row>
     <row r="247" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B247" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D247" s="0" t="n">
         <v>1</v>
@@ -14120,14 +14559,14 @@
     </row>
     <row r="248" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B248" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="D248" s="0" t="n">
         <v>1</v>
@@ -14141,14 +14580,14 @@
     </row>
     <row r="249" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B249" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="D249" s="0" t="n">
         <v>0</v>
@@ -14162,14 +14601,14 @@
     </row>
     <row r="250" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B250" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="D250" s="0" t="n">
         <v>0.714285714285714</v>
@@ -14183,14 +14622,14 @@
     </row>
     <row r="251" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B251" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D251" s="0" t="n">
         <v>0</v>
@@ -14204,14 +14643,14 @@
     </row>
     <row r="252" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B252" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="D252" s="0" t="n">
         <v>0.769230769230769</v>
@@ -14225,14 +14664,14 @@
     </row>
     <row r="253" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B253" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="D253" s="0" t="n">
         <v>0.833333333333333</v>
@@ -14246,14 +14685,14 @@
     </row>
     <row r="254" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B254" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="D254" s="0" t="n">
         <v>0</v>
@@ -14267,14 +14706,14 @@
     </row>
     <row r="255" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B255" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="D255" s="0" t="n">
         <v>1</v>
@@ -14288,14 +14727,14 @@
     </row>
     <row r="256" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B256" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="D256" s="0" t="n">
         <v>1</v>
@@ -14309,14 +14748,14 @@
     </row>
     <row r="257" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B257" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="D257" s="0" t="n">
         <v>1</v>
@@ -14330,14 +14769,14 @@
     </row>
     <row r="258" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B258" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="D258" s="0" t="n">
         <v>1</v>
@@ -14351,14 +14790,14 @@
     </row>
     <row r="259" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B259" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="D259" s="0" t="n">
         <v>0</v>
@@ -14372,14 +14811,14 @@
     </row>
     <row r="260" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B260" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="D260" s="0" t="n">
         <v>0</v>
@@ -14393,14 +14832,14 @@
     </row>
     <row r="261" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B261" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="D261" s="0" t="n">
         <v>1</v>
@@ -14414,14 +14853,14 @@
     </row>
     <row r="262" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B262" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="D262" s="0" t="n">
         <v>0</v>
@@ -14435,14 +14874,14 @@
     </row>
     <row r="263" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B263" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="D263" s="0" t="n">
         <v>0.428571428571429</v>
@@ -14456,14 +14895,14 @@
     </row>
     <row r="264" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B264" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="D264" s="0" t="n">
         <v>0.428571428571429</v>
@@ -14477,14 +14916,14 @@
     </row>
     <row r="265" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B265" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="D265" s="0" t="n">
         <v>0</v>
@@ -14498,14 +14937,14 @@
     </row>
     <row r="266" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B266" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="D266" s="0" t="n">
         <v>0.6</v>
@@ -14519,14 +14958,14 @@
     </row>
     <row r="267" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B267" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="D267" s="0" t="n">
         <v>0</v>
@@ -14540,14 +14979,14 @@
     </row>
     <row r="268" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B268" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="D268" s="0" t="n">
         <v>0.5</v>
@@ -14561,14 +15000,14 @@
     </row>
     <row r="269" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B269" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="D269" s="0" t="n">
         <v>0.166666666666667</v>
@@ -14582,14 +15021,14 @@
     </row>
     <row r="270" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B270" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="D270" s="0" t="n">
         <v>0.5</v>
@@ -14603,14 +15042,14 @@
     </row>
     <row r="271" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B271" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="D271" s="0" t="n">
         <v>0.333333333333333</v>
@@ -14624,14 +15063,14 @@
     </row>
     <row r="272" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B272" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="D272" s="0" t="n">
         <v>1</v>
@@ -14645,14 +15084,14 @@
     </row>
     <row r="273" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B273" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="D273" s="0" t="n">
         <v>0</v>
@@ -14666,14 +15105,14 @@
     </row>
     <row r="274" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B274" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="D274" s="0" t="n">
         <v>0.5</v>
@@ -14687,14 +15126,14 @@
     </row>
     <row r="275" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B275" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="D275" s="0" t="n">
         <v>0.333333333333333</v>
@@ -14708,14 +15147,14 @@
     </row>
     <row r="276" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B276" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="D276" s="0" t="n">
         <v>0.166666666666667</v>
@@ -14729,14 +15168,14 @@
     </row>
     <row r="277" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B277" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="D277" s="0" t="n">
         <v>1</v>
@@ -14750,14 +15189,14 @@
     </row>
     <row r="278" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B278" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="D278" s="0" t="n">
         <v>0.5</v>
@@ -14771,14 +15210,14 @@
     </row>
     <row r="279" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B279" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="D279" s="0" t="n">
         <v>1</v>
@@ -14792,14 +15231,14 @@
     </row>
     <row r="280" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B280" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="D280" s="0" t="n">
         <v>0</v>
@@ -14813,14 +15252,14 @@
     </row>
     <row r="281" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B281" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="D281" s="0" t="n">
         <v>0</v>
@@ -14834,14 +15273,14 @@
     </row>
     <row r="282" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B282" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="D282" s="0" t="n">
         <v>0</v>
@@ -14855,14 +15294,14 @@
     </row>
     <row r="283" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B283" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="D283" s="0" t="n">
         <v>1</v>
@@ -14876,14 +15315,14 @@
     </row>
     <row r="284" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B284" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="D284" s="0" t="n">
         <v>1</v>
@@ -14897,14 +15336,14 @@
     </row>
     <row r="285" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B285" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="D285" s="0" t="n">
         <v>0.03125</v>
@@ -14918,14 +15357,14 @@
     </row>
     <row r="286" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B286" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="D286" s="0" t="n">
         <v>0.0294117647058823</v>
@@ -14939,14 +15378,14 @@
     </row>
     <row r="287" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B287" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="D287" s="0" t="n">
         <v>0.0461538461538462</v>
@@ -14960,14 +15399,14 @@
     </row>
     <row r="288" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B288" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="D288" s="0" t="n">
         <v>0</v>
@@ -14981,14 +15420,14 @@
     </row>
     <row r="289" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B289" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="D289" s="0" t="n">
         <v>0</v>
@@ -15002,14 +15441,14 @@
     </row>
     <row r="290" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B290" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="D290" s="0" t="n">
         <v>0</v>
@@ -15023,14 +15462,14 @@
     </row>
     <row r="291" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B291" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="D291" s="0" t="n">
         <v>0</v>
@@ -15044,14 +15483,14 @@
     </row>
     <row r="292" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B292" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="D292" s="0" t="n">
         <v>0</v>
@@ -15065,14 +15504,14 @@
     </row>
     <row r="293" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B293" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="D293" s="0" t="n">
         <v>0</v>
@@ -15086,14 +15525,14 @@
     </row>
     <row r="294" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B294" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="D294" s="0" t="n">
         <v>0.188405797101449</v>
@@ -15107,14 +15546,14 @@
     </row>
     <row r="295" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B295" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="D295" s="0" t="n">
         <v>0.6</v>
@@ -15128,14 +15567,14 @@
     </row>
     <row r="296" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B296" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="D296" s="0" t="n">
         <v>1</v>
@@ -15149,14 +15588,14 @@
     </row>
     <row r="297" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B297" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="D297" s="0" t="n">
         <v>0.8</v>
@@ -15170,14 +15609,14 @@
     </row>
     <row r="298" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B298" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="D298" s="0" t="n">
         <v>0.666666666666667</v>
@@ -15191,14 +15630,14 @@
     </row>
     <row r="299" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B299" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D299" s="0" t="n">
         <v>1</v>
@@ -15212,14 +15651,14 @@
     </row>
     <row r="300" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B300" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="D300" s="0" t="n">
         <v>0.181818181818182</v>
@@ -15233,14 +15672,14 @@
     </row>
     <row r="301" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B301" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="D301" s="0" t="n">
         <v>1</v>
@@ -15254,14 +15693,14 @@
     </row>
     <row r="302" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B302" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="D302" s="0" t="n">
         <v>0.0697674418604651</v>
@@ -15275,14 +15714,14 @@
     </row>
     <row r="303" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B303" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="D303" s="0" t="n">
         <v>0.1</v>
@@ -15296,14 +15735,14 @@
     </row>
     <row r="304" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B304" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="D304" s="0" t="n">
         <v>0.186046511627907</v>
@@ -15317,14 +15756,14 @@
     </row>
     <row r="305" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B305" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="D305" s="0" t="n">
         <v>0</v>
@@ -15338,14 +15777,14 @@
     </row>
     <row r="306" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B306" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="D306" s="0" t="n">
         <v>0.777777777777778</v>
@@ -15359,14 +15798,14 @@
     </row>
     <row r="307" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B307" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="D307" s="0" t="n">
         <v>1</v>
@@ -15380,14 +15819,14 @@
     </row>
     <row r="308" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B308" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="D308" s="0" t="n">
         <v>1</v>
@@ -15401,14 +15840,14 @@
     </row>
     <row r="309" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B309" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="D309" s="0" t="n">
         <v>0.0222222222222222</v>
@@ -15422,14 +15861,14 @@
     </row>
     <row r="310" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B310" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="D310" s="0" t="n">
         <v>0.2</v>
@@ -15443,14 +15882,14 @@
     </row>
     <row r="311" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B311" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="D311" s="0" t="n">
         <v>1</v>
@@ -15464,14 +15903,14 @@
     </row>
     <row r="312" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B312" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="D312" s="0" t="n">
         <v>0</v>
@@ -15485,14 +15924,14 @@
     </row>
     <row r="313" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B313" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="D313" s="0" t="n">
         <v>1</v>
@@ -15506,14 +15945,14 @@
     </row>
     <row r="314" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B314" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="D314" s="0" t="n">
         <v>0.5</v>
@@ -15527,14 +15966,14 @@
     </row>
     <row r="315" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B315" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="D315" s="0" t="n">
         <v>0.5</v>
@@ -15548,14 +15987,14 @@
     </row>
     <row r="316" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B316" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="D316" s="0" t="n">
         <v>0.5</v>
@@ -15569,14 +16008,14 @@
     </row>
     <row r="317" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B317" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="D317" s="0" t="n">
         <v>0</v>
@@ -15590,14 +16029,14 @@
     </row>
     <row r="318" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B318" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="D318" s="0" t="n">
         <v>0</v>
@@ -15611,14 +16050,14 @@
     </row>
     <row r="319" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B319" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="D319" s="0" t="n">
         <v>0.296875</v>
@@ -15632,14 +16071,14 @@
     </row>
     <row r="320" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B320" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="D320" s="0" t="n">
         <v>1</v>
@@ -15653,14 +16092,14 @@
     </row>
     <row r="321" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B321" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="D321" s="0" t="n">
         <v>0.5</v>
@@ -15674,14 +16113,14 @@
     </row>
     <row r="322" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B322" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="D322" s="0" t="n">
         <v>0.5</v>
@@ -15695,14 +16134,14 @@
     </row>
     <row r="323" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B323" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="D323" s="0" t="n">
         <v>0.75</v>
@@ -15716,14 +16155,14 @@
     </row>
     <row r="324" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B324" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="D324" s="0" t="n">
         <v>0</v>
@@ -15737,14 +16176,14 @@
     </row>
     <row r="325" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B325" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="D325" s="0" t="n">
         <v>0</v>
@@ -15758,14 +16197,14 @@
     </row>
     <row r="326" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B326" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="D326" s="0" t="n">
         <v>0.375</v>
@@ -15779,14 +16218,14 @@
     </row>
     <row r="327" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B327" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="D327" s="0" t="n">
         <v>0.5</v>
@@ -15800,14 +16239,14 @@
     </row>
     <row r="328" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B328" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D328" s="0" t="n">
         <v>0</v>
@@ -15821,14 +16260,14 @@
     </row>
     <row r="329" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B329" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="D329" s="0" t="n">
         <v>0.294117647058824</v>
@@ -15842,14 +16281,14 @@
     </row>
     <row r="330" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B330" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="D330" s="0" t="n">
         <v>0</v>
@@ -15863,14 +16302,14 @@
     </row>
     <row r="331" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B331" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="D331" s="0" t="n">
         <v>0</v>
@@ -15884,14 +16323,14 @@
     </row>
     <row r="332" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B332" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="D332" s="0" t="n">
         <v>0</v>
@@ -15905,14 +16344,14 @@
     </row>
     <row r="333" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B333" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="D333" s="0" t="n">
         <v>0.08</v>
@@ -15926,14 +16365,14 @@
     </row>
     <row r="334" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B334" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="D334" s="0" t="n">
         <v>0</v>
@@ -15947,14 +16386,14 @@
     </row>
     <row r="335" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B335" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="D335" s="0" t="n">
         <v>0</v>
@@ -15968,14 +16407,14 @@
     </row>
     <row r="336" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B336" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D336" s="0" t="n">
         <v>0</v>
@@ -15989,14 +16428,14 @@
     </row>
     <row r="337" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B337" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="D337" s="0" t="n">
         <v>0.5</v>
@@ -16010,14 +16449,14 @@
     </row>
     <row r="338" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B338" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="D338" s="0" t="n">
         <v>0.0526315789473684</v>
@@ -16031,14 +16470,14 @@
     </row>
     <row r="339" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B339" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="D339" s="0" t="n">
         <v>0.214285714285714</v>
@@ -16052,14 +16491,14 @@
     </row>
     <row r="340" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B340" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="D340" s="0" t="n">
         <v>0.25</v>
@@ -16073,14 +16512,14 @@
     </row>
     <row r="341" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B341" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="D341" s="0" t="n">
         <v>0.615384615384615</v>
@@ -16094,14 +16533,14 @@
     </row>
     <row r="342" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B342" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="D342" s="0" t="n">
         <v>0.625</v>
@@ -16115,14 +16554,14 @@
     </row>
     <row r="343" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B343" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="D343" s="0" t="n">
         <v>0.5</v>
@@ -16136,14 +16575,14 @@
     </row>
     <row r="344" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B344" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="D344" s="0" t="n">
         <v>0.25</v>
@@ -16157,14 +16596,14 @@
     </row>
     <row r="345" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B345" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="D345" s="0" t="n">
         <v>0.333333333333333</v>
@@ -16178,14 +16617,14 @@
     </row>
     <row r="346" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B346" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="D346" s="0" t="n">
         <v>0.5</v>
@@ -16199,14 +16638,14 @@
     </row>
     <row r="347" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B347" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="D347" s="0" t="n">
         <v>0.333333333333333</v>
@@ -16220,14 +16659,14 @@
     </row>
     <row r="348" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B348" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="D348" s="0" t="n">
         <v>0.222222222222222</v>
@@ -16241,14 +16680,14 @@
     </row>
     <row r="349" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B349" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="D349" s="0" t="n">
         <v>0.5</v>
@@ -16262,14 +16701,14 @@
     </row>
     <row r="350" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B350" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="D350" s="0" t="n">
         <v>0.666666666666667</v>
@@ -16283,14 +16722,14 @@
     </row>
     <row r="351" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B351" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="D351" s="0" t="n">
         <v>0.321428571428571</v>
@@ -16304,14 +16743,14 @@
     </row>
     <row r="352" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B352" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D352" s="0" t="n">
         <v>0</v>
@@ -16325,14 +16764,14 @@
     </row>
     <row r="353" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B353" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="D353" s="0" t="n">
         <v>1</v>
@@ -16346,14 +16785,14 @@
     </row>
     <row r="354" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B354" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="D354" s="0" t="n">
         <v>0</v>
@@ -16367,14 +16806,14 @@
     </row>
     <row r="355" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B355" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="D355" s="0" t="n">
         <v>0.777777777777778</v>
@@ -16388,14 +16827,14 @@
     </row>
     <row r="356" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B356" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="D356" s="0" t="n">
         <v>1</v>
@@ -16409,14 +16848,14 @@
     </row>
     <row r="357" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B357" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="D357" s="0" t="n">
         <v>0.366666666666667</v>
@@ -16430,14 +16869,14 @@
     </row>
     <row r="358" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B358" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D358" s="0" t="n">
         <v>0.333333333333333</v>
@@ -16451,14 +16890,14 @@
     </row>
     <row r="359" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B359" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="D359" s="0" t="n">
         <v>0.75</v>
@@ -16472,14 +16911,14 @@
     </row>
     <row r="360" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B360" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="D360" s="0" t="n">
         <v>0</v>
@@ -16493,14 +16932,14 @@
     </row>
     <row r="361" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B361" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="D361" s="0" t="n">
         <v>0.294117647058824</v>
@@ -16514,14 +16953,14 @@
     </row>
     <row r="362" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B362" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="D362" s="0" t="n">
         <v>0</v>
@@ -16535,14 +16974,14 @@
     </row>
     <row r="363" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B363" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="D363" s="0" t="n">
         <v>0</v>
@@ -16556,14 +16995,14 @@
     </row>
     <row r="364" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B364" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="D364" s="0" t="n">
         <v>1</v>
@@ -16577,14 +17016,14 @@
     </row>
     <row r="365" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B365" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="D365" s="0" t="n">
         <v>0</v>
@@ -16598,14 +17037,14 @@
     </row>
     <row r="366" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B366" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="D366" s="0" t="n">
         <v>0.183908045977011</v>
@@ -16619,14 +17058,14 @@
     </row>
     <row r="367" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B367" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="D367" s="0" t="n">
         <v>0</v>
@@ -16640,14 +17079,14 @@
     </row>
     <row r="368" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B368" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="D368" s="0" t="n">
         <v>0</v>
@@ -16661,14 +17100,14 @@
     </row>
     <row r="369" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B369" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="D369" s="0" t="n">
         <v>0.5</v>
@@ -16682,14 +17121,14 @@
     </row>
     <row r="370" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B370" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="D370" s="0" t="n">
         <v>0.285714285714286</v>
@@ -16703,14 +17142,14 @@
     </row>
     <row r="371" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B371" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="D371" s="0" t="n">
         <v>1</v>
@@ -16724,14 +17163,14 @@
     </row>
     <row r="372" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B372" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D372" s="0" t="n">
         <v>0</v>
@@ -16745,14 +17184,14 @@
     </row>
     <row r="373" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B373" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="D373" s="0" t="n">
         <v>0</v>
@@ -16766,14 +17205,14 @@
     </row>
     <row r="374" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B374" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D374" s="0" t="n">
         <v>0.321428571428571</v>
@@ -16787,14 +17226,14 @@
     </row>
     <row r="375" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B375" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="D375" s="0" t="n">
         <v>1</v>
@@ -16808,14 +17247,14 @@
     </row>
     <row r="376" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B376" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="D376" s="0" t="n">
         <v>0.555555555555556</v>
@@ -16829,14 +17268,14 @@
     </row>
     <row r="377" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B377" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="D377" s="0" t="n">
         <v>0.666666666666667</v>
@@ -16850,14 +17289,14 @@
     </row>
     <row r="378" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B378" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="D378" s="0" t="n">
         <v>0.8125</v>
@@ -16871,14 +17310,14 @@
     </row>
     <row r="379" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B379" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="D379" s="0" t="n">
         <v>0.875</v>
@@ -16892,14 +17331,14 @@
     </row>
     <row r="380" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B380" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="D380" s="0" t="n">
         <v>0.601694915254237</v>
@@ -16913,14 +17352,14 @@
     </row>
     <row r="381" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B381" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="D381" s="0" t="n">
         <v>1</v>
@@ -16954,47 +17393,47 @@
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>

--- a/resources/forward-stationing.xlsx
+++ b/resources/forward-stationing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyRecords" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="655">
   <si>
     <t xml:space="preserve">TimeStamp</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t xml:space="preserve">DemandRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">01205K000</t>
@@ -2008,7 +2011,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]M/D/YYYY\ H:MM"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="[$-409]M/D/YYYY"/>
-    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -2131,7 +2134,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2176,7 +2179,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2196,6 +2207,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2205,6 +2220,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2292,11 +2311,11 @@
   </sheetPr>
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:B4 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.44"/>
@@ -2311,7 +2330,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="33.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15"/>
   </cols>
   <sheetData>
@@ -6986,10 +7005,10 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="topLeft" activeCell="D38" activeCellId="1" sqref="B2:B4 D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.16"/>
@@ -7855,10 +7874,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="B2:B4 D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7982,10 +8001,10 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="1" sqref="B2:B4 D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.56"/>
@@ -8191,64 +8210,65 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="11.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>234</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -8256,117 +8276,115 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="n">
+      <c r="B2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="18" t="n">
         <v>11018</v>
       </c>
-      <c r="D2" s="16" t="n">
+      <c r="D2" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="n">
+      <c r="E2" s="18" t="n">
         <v>812</v>
       </c>
-      <c r="F2" s="17" t="n">
+      <c r="F2" s="20" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>630</v>
       </c>
-      <c r="H2" s="18" t="n">
+      <c r="H2" s="21" t="n">
         <v>45</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>237</v>
+      <c r="I2" s="18" t="s">
+        <v>238</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="K2" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="O2" s="15" t="n">
+      <c r="N2" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="O2" s="18" t="n">
         <v>10</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>3</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="15" t="n">
+      <c r="B3" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="18" t="n">
         <v>11018</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="E3" s="15" t="n">
+      <c r="E3" s="18" t="n">
         <v>813</v>
       </c>
-      <c r="F3" s="17" t="n">
+      <c r="F3" s="20" t="n">
         <v>20</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>630</v>
       </c>
-      <c r="H3" s="18" t="n">
+      <c r="H3" s="21" t="n">
         <v>45</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>237</v>
+      <c r="I3" s="18" t="s">
+        <v>238</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="K3" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="K3" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="L3" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="O3" s="15" t="n">
+      <c r="M3" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="O3" s="18" t="n">
         <v>10</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>3</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -8385,24 +8403,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="73.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="41.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -8412,7 +8431,7 @@
         <v>226</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>233</v>
@@ -8421,10 +8440,10 @@
         <v>185</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>160</v>
@@ -8433,43 +8452,42 @@
         <v>235</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>256</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>237</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>214</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
@@ -8484,7 +8502,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>0</v>
@@ -8496,35 +8514,34 @@
         <v>19</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P2" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>256</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>237</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
@@ -8551,35 +8568,34 @@
         <v>19</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P3" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>256</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>237</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>19</v>
@@ -8606,697 +8622,16 @@
         <v>19</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -9316,10 +8651,10 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="1" sqref="B2:B4 J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9329,16 +8664,16 @@
         <v>226</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -9360,10 +8695,10 @@
   <dimension ref="A1:G381"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:B4 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.28"/>
   </cols>
@@ -9382,25 +8717,25 @@
         <v>214</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -9414,14 +8749,14 @@
     </row>
     <row r="3" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -9435,14 +8770,14 @@
     </row>
     <row r="4" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -9456,14 +8791,14 @@
     </row>
     <row r="5" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0.733333333333333</v>
@@ -9477,14 +8812,14 @@
     </row>
     <row r="6" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -9498,14 +8833,14 @@
     </row>
     <row r="7" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -9519,14 +8854,14 @@
     </row>
     <row r="8" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
@@ -9540,14 +8875,14 @@
     </row>
     <row r="9" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
@@ -9561,14 +8896,14 @@
     </row>
     <row r="10" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
@@ -9582,14 +8917,14 @@
     </row>
     <row r="11" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -9603,14 +8938,14 @@
     </row>
     <row r="12" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
@@ -9624,14 +8959,14 @@
     </row>
     <row r="13" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -9645,14 +8980,14 @@
     </row>
     <row r="14" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
@@ -9666,14 +9001,14 @@
     </row>
     <row r="15" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
@@ -9687,14 +9022,14 @@
     </row>
     <row r="16" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0.5</v>
@@ -9708,14 +9043,14 @@
     </row>
     <row r="17" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0.333333333333333</v>
@@ -9729,14 +9064,14 @@
     </row>
     <row r="18" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
@@ -9750,14 +9085,14 @@
     </row>
     <row r="19" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
@@ -9771,14 +9106,14 @@
     </row>
     <row r="20" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
@@ -9792,14 +9127,14 @@
     </row>
     <row r="21" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
@@ -9813,14 +9148,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
@@ -9834,14 +9169,14 @@
     </row>
     <row r="23" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
@@ -9855,14 +9190,14 @@
     </row>
     <row r="24" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
@@ -9876,14 +9211,14 @@
     </row>
     <row r="25" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
@@ -9897,14 +9232,14 @@
     </row>
     <row r="26" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -9918,14 +9253,14 @@
     </row>
     <row r="27" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
@@ -9939,14 +9274,14 @@
     </row>
     <row r="28" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
@@ -9960,14 +9295,14 @@
     </row>
     <row r="29" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1</v>
@@ -9981,14 +9316,14 @@
     </row>
     <row r="30" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>0</v>
@@ -10002,14 +9337,14 @@
     </row>
     <row r="31" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>0</v>
@@ -10023,14 +9358,14 @@
     </row>
     <row r="32" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>0</v>
@@ -10044,14 +9379,14 @@
     </row>
     <row r="33" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0.228915662650602</v>
@@ -10065,14 +9400,14 @@
     </row>
     <row r="34" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B34" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0.314285714285714</v>
@@ -10086,14 +9421,14 @@
     </row>
     <row r="35" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B35" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0.280898876404494</v>
@@ -10107,14 +9442,14 @@
     </row>
     <row r="36" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B36" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0.189873417721519</v>
@@ -10128,14 +9463,14 @@
     </row>
     <row r="37" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B37" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1</v>
@@ -10149,14 +9484,14 @@
     </row>
     <row r="38" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B38" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1</v>
@@ -10170,14 +9505,14 @@
     </row>
     <row r="39" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B39" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>0.326086956521739</v>
@@ -10191,14 +9526,14 @@
     </row>
     <row r="40" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B40" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1</v>
@@ -10212,14 +9547,14 @@
     </row>
     <row r="41" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B41" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0.227272727272727</v>
@@ -10233,14 +9568,14 @@
     </row>
     <row r="42" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B42" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0</v>
@@ -10254,14 +9589,14 @@
     </row>
     <row r="43" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B43" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0</v>
@@ -10275,14 +9610,14 @@
     </row>
     <row r="44" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B44" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>0.25</v>
@@ -10296,14 +9631,14 @@
     </row>
     <row r="45" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B45" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>0.714285714285714</v>
@@ -10317,14 +9652,14 @@
     </row>
     <row r="46" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B46" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>0</v>
@@ -10338,14 +9673,14 @@
     </row>
     <row r="47" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B47" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>0.666666666666667</v>
@@ -10359,14 +9694,14 @@
     </row>
     <row r="48" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B48" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>0.321428571428571</v>
@@ -10380,14 +9715,14 @@
     </row>
     <row r="49" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B49" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>0.777777777777778</v>
@@ -10401,14 +9736,14 @@
     </row>
     <row r="50" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B50" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>1</v>
@@ -10422,14 +9757,14 @@
     </row>
     <row r="51" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B51" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>0.25</v>
@@ -10443,14 +9778,14 @@
     </row>
     <row r="52" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B52" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>0.158730158730159</v>
@@ -10464,14 +9799,14 @@
     </row>
     <row r="53" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B53" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>0</v>
@@ -10485,14 +9820,14 @@
     </row>
     <row r="54" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B54" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>0.222222222222222</v>
@@ -10506,14 +9841,14 @@
     </row>
     <row r="55" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B55" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>0.146341463414634</v>
@@ -10527,14 +9862,14 @@
     </row>
     <row r="56" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B56" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>0.428571428571429</v>
@@ -10548,14 +9883,14 @@
     </row>
     <row r="57" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B57" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>0</v>
@@ -10569,14 +9904,14 @@
     </row>
     <row r="58" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B58" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>0.103448275862069</v>
@@ -10590,14 +9925,14 @@
     </row>
     <row r="59" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B59" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>0.16</v>
@@ -10611,14 +9946,14 @@
     </row>
     <row r="60" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B60" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>0.173913043478261</v>
@@ -10632,14 +9967,14 @@
     </row>
     <row r="61" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B61" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>0</v>
@@ -10653,14 +9988,14 @@
     </row>
     <row r="62" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B62" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>0.0769230769230769</v>
@@ -10674,14 +10009,14 @@
     </row>
     <row r="63" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B63" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>0</v>
@@ -10695,14 +10030,14 @@
     </row>
     <row r="64" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B64" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>0</v>
@@ -10716,14 +10051,14 @@
     </row>
     <row r="65" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B65" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>0</v>
@@ -10737,14 +10072,14 @@
     </row>
     <row r="66" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B66" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>0</v>
@@ -10758,14 +10093,14 @@
     </row>
     <row r="67" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B67" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>0</v>
@@ -10779,14 +10114,14 @@
     </row>
     <row r="68" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B68" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>1</v>
@@ -10800,14 +10135,14 @@
     </row>
     <row r="69" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B69" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>0</v>
@@ -10821,14 +10156,14 @@
     </row>
     <row r="70" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B70" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>0</v>
@@ -10842,14 +10177,14 @@
     </row>
     <row r="71" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B71" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>1</v>
@@ -10863,14 +10198,14 @@
     </row>
     <row r="72" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B72" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>1</v>
@@ -10884,14 +10219,14 @@
     </row>
     <row r="73" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B73" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>0</v>
@@ -10905,14 +10240,14 @@
     </row>
     <row r="74" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B74" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>0.285714285714286</v>
@@ -10926,14 +10261,14 @@
     </row>
     <row r="75" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B75" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>0.285714285714286</v>
@@ -10947,14 +10282,14 @@
     </row>
     <row r="76" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B76" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>0</v>
@@ -10968,14 +10303,14 @@
     </row>
     <row r="77" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B77" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>0.285714285714286</v>
@@ -10989,14 +10324,14 @@
     </row>
     <row r="78" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B78" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>1</v>
@@ -11010,14 +10345,14 @@
     </row>
     <row r="79" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B79" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
@@ -11031,14 +10366,14 @@
     </row>
     <row r="80" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B80" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>0</v>
@@ -11052,14 +10387,14 @@
     </row>
     <row r="81" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B81" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>1</v>
@@ -11073,14 +10408,14 @@
     </row>
     <row r="82" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B82" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
@@ -11094,14 +10429,14 @@
     </row>
     <row r="83" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B83" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>0.321428571428571</v>
@@ -11115,14 +10450,14 @@
     </row>
     <row r="84" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B84" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>1</v>
@@ -11136,14 +10471,14 @@
     </row>
     <row r="85" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B85" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>0.777777777777778</v>
@@ -11157,14 +10492,14 @@
     </row>
     <row r="86" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B86" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>1</v>
@@ -11178,14 +10513,14 @@
     </row>
     <row r="87" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B87" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>1</v>
@@ -11199,14 +10534,14 @@
     </row>
     <row r="88" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B88" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>0.666666666666667</v>
@@ -11220,14 +10555,14 @@
     </row>
     <row r="89" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B89" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>0</v>
@@ -11241,14 +10576,14 @@
     </row>
     <row r="90" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B90" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>0.333333333333333</v>
@@ -11262,14 +10597,14 @@
     </row>
     <row r="91" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B91" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>0</v>
@@ -11283,14 +10618,14 @@
     </row>
     <row r="92" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B92" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>0.75</v>
@@ -11304,14 +10639,14 @@
     </row>
     <row r="93" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B93" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>0.294117647058824</v>
@@ -11325,14 +10660,14 @@
     </row>
     <row r="94" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B94" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0.666666666666667</v>
@@ -11346,14 +10681,14 @@
     </row>
     <row r="95" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B95" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>0.666666666666667</v>
@@ -11367,14 +10702,14 @@
     </row>
     <row r="96" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B96" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>0.702127659574468</v>
@@ -11388,14 +10723,14 @@
     </row>
     <row r="97" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B97" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>0.777777777777778</v>
@@ -11409,14 +10744,14 @@
     </row>
     <row r="98" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B98" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>0.297619047619048</v>
@@ -11430,14 +10765,14 @@
     </row>
     <row r="99" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B99" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>0.916666666666667</v>
@@ -11451,14 +10786,14 @@
     </row>
     <row r="100" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B100" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>0.666666666666667</v>
@@ -11472,14 +10807,14 @@
     </row>
     <row r="101" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B101" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>0.666666666666667</v>
@@ -11493,14 +10828,14 @@
     </row>
     <row r="102" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B102" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>1</v>
@@ -11514,14 +10849,14 @@
     </row>
     <row r="103" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B103" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>1</v>
@@ -11535,14 +10870,14 @@
     </row>
     <row r="104" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B104" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>1</v>
@@ -11556,14 +10891,14 @@
     </row>
     <row r="105" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B105" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>0.368421052631579</v>
@@ -11577,14 +10912,14 @@
     </row>
     <row r="106" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B106" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>0</v>
@@ -11598,14 +10933,14 @@
     </row>
     <row r="107" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B107" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>0.333333333333333</v>
@@ -11619,14 +10954,14 @@
     </row>
     <row r="108" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B108" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>0.333333333333333</v>
@@ -11640,14 +10975,14 @@
     </row>
     <row r="109" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B109" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>0.714285714285714</v>
@@ -11661,14 +10996,14 @@
     </row>
     <row r="110" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B110" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>0.173913043478261</v>
@@ -11682,14 +11017,14 @@
     </row>
     <row r="111" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B111" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>0.245614035087719</v>
@@ -11703,14 +11038,14 @@
     </row>
     <row r="112" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B112" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>0.263157894736842</v>
@@ -11724,14 +11059,14 @@
     </row>
     <row r="113" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B113" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>0.4</v>
@@ -11745,14 +11080,14 @@
     </row>
     <row r="114" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B114" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>0.272727272727273</v>
@@ -11766,14 +11101,14 @@
     </row>
     <row r="115" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B115" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>0.238095238095238</v>
@@ -11787,14 +11122,14 @@
     </row>
     <row r="116" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B116" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>0.272727272727273</v>
@@ -11808,14 +11143,14 @@
     </row>
     <row r="117" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B117" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>0.333333333333333</v>
@@ -11829,14 +11164,14 @@
     </row>
     <row r="118" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B118" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>0.405405405405405</v>
@@ -11850,14 +11185,14 @@
     </row>
     <row r="119" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B119" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
@@ -11871,14 +11206,14 @@
     </row>
     <row r="120" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B120" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>0.636363636363636</v>
@@ -11892,14 +11227,14 @@
     </row>
     <row r="121" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B121" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>0</v>
@@ -11913,14 +11248,14 @@
     </row>
     <row r="122" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B122" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>0.5</v>
@@ -11934,14 +11269,14 @@
     </row>
     <row r="123" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B123" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>0.5</v>
@@ -11955,14 +11290,14 @@
     </row>
     <row r="124" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B124" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>1</v>
@@ -11976,14 +11311,14 @@
     </row>
     <row r="125" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B125" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>1</v>
@@ -11997,14 +11332,14 @@
     </row>
     <row r="126" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B126" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>0</v>
@@ -12018,14 +11353,14 @@
     </row>
     <row r="127" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B127" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>0.454545454545455</v>
@@ -12039,14 +11374,14 @@
     </row>
     <row r="128" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B128" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>0.428571428571429</v>
@@ -12060,14 +11395,14 @@
     </row>
     <row r="129" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B129" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>0.36</v>
@@ -12081,14 +11416,14 @@
     </row>
     <row r="130" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B130" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>0.285714285714286</v>
@@ -12102,14 +11437,14 @@
     </row>
     <row r="131" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B131" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>0.314285714285714</v>
@@ -12123,14 +11458,14 @@
     </row>
     <row r="132" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B132" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>1</v>
@@ -12144,14 +11479,14 @@
     </row>
     <row r="133" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B133" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>0.666666666666667</v>
@@ -12165,14 +11500,14 @@
     </row>
     <row r="134" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B134" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>0.31578947368421</v>
@@ -12186,14 +11521,14 @@
     </row>
     <row r="135" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B135" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>0.264150943396226</v>
@@ -12207,14 +11542,14 @@
     </row>
     <row r="136" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B136" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>0.72</v>
@@ -12228,14 +11563,14 @@
     </row>
     <row r="137" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B137" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>0.723684210526316</v>
@@ -12249,14 +11584,14 @@
     </row>
     <row r="138" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B138" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>1</v>
@@ -12270,14 +11605,14 @@
     </row>
     <row r="139" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B139" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>1</v>
@@ -12291,14 +11626,14 @@
     </row>
     <row r="140" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B140" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>0.666666666666667</v>
@@ -12312,14 +11647,14 @@
     </row>
     <row r="141" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B141" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>1</v>
@@ -12333,14 +11668,14 @@
     </row>
     <row r="142" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B142" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>1</v>
@@ -12354,14 +11689,14 @@
     </row>
     <row r="143" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B143" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>1</v>
@@ -12375,14 +11710,14 @@
     </row>
     <row r="144" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B144" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>0</v>
@@ -12396,14 +11731,14 @@
     </row>
     <row r="145" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B145" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>0</v>
@@ -12417,14 +11752,14 @@
     </row>
     <row r="146" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B146" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>0.129032258064516</v>
@@ -12438,14 +11773,14 @@
     </row>
     <row r="147" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B147" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>0.0714285714285714</v>
@@ -12459,14 +11794,14 @@
     </row>
     <row r="148" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B148" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>0.0384615384615385</v>
@@ -12480,14 +11815,14 @@
     </row>
     <row r="149" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B149" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>0.619047619047619</v>
@@ -12501,14 +11836,14 @@
     </row>
     <row r="150" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B150" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>0.619047619047619</v>
@@ -12522,14 +11857,14 @@
     </row>
     <row r="151" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B151" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>0.25</v>
@@ -12543,14 +11878,14 @@
     </row>
     <row r="152" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B152" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>0.0625</v>
@@ -12564,14 +11899,14 @@
     </row>
     <row r="153" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B153" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>0.0625</v>
@@ -12585,14 +11920,14 @@
     </row>
     <row r="154" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B154" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>0.0625</v>
@@ -12606,14 +11941,14 @@
     </row>
     <row r="155" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B155" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>1</v>
@@ -12627,14 +11962,14 @@
     </row>
     <row r="156" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B156" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>0.25</v>
@@ -12648,14 +11983,14 @@
     </row>
     <row r="157" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B157" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>0.2</v>
@@ -12669,14 +12004,14 @@
     </row>
     <row r="158" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B158" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>0.4</v>
@@ -12690,14 +12025,14 @@
     </row>
     <row r="159" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B159" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>0.25</v>
@@ -12711,14 +12046,14 @@
     </row>
     <row r="160" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B160" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>0.25</v>
@@ -12732,14 +12067,14 @@
     </row>
     <row r="161" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B161" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>0.2</v>
@@ -12753,14 +12088,14 @@
     </row>
     <row r="162" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B162" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>0.333333333333333</v>
@@ -12774,14 +12109,14 @@
     </row>
     <row r="163" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B163" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>0.0952380952380952</v>
@@ -12795,14 +12130,14 @@
     </row>
     <row r="164" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B164" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>1</v>
@@ -12816,14 +12151,14 @@
     </row>
     <row r="165" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B165" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>0.0384615384615385</v>
@@ -12837,14 +12172,14 @@
     </row>
     <row r="166" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B166" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>0.0384615384615385</v>
@@ -12858,14 +12193,14 @@
     </row>
     <row r="167" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B167" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>0</v>
@@ -12879,14 +12214,14 @@
     </row>
     <row r="168" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B168" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>0</v>
@@ -12900,14 +12235,14 @@
     </row>
     <row r="169" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B169" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>0.444444444444444</v>
@@ -12921,14 +12256,14 @@
     </row>
     <row r="170" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B170" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>0.235294117647059</v>
@@ -12942,14 +12277,14 @@
     </row>
     <row r="171" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B171" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>0.234042553191489</v>
@@ -12963,14 +12298,14 @@
     </row>
     <row r="172" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B172" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>0.230769230769231</v>
@@ -12984,14 +12319,14 @@
     </row>
     <row r="173" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B173" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>0.428571428571429</v>
@@ -13005,14 +12340,14 @@
     </row>
     <row r="174" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B174" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>0.5</v>
@@ -13026,14 +12361,14 @@
     </row>
     <row r="175" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B175" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>0.666666666666667</v>
@@ -13047,14 +12382,14 @@
     </row>
     <row r="176" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B176" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>0.44</v>
@@ -13068,14 +12403,14 @@
     </row>
     <row r="177" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B177" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>0.379310344827586</v>
@@ -13089,14 +12424,14 @@
     </row>
     <row r="178" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B178" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>0</v>
@@ -13110,14 +12445,14 @@
     </row>
     <row r="179" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B179" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>0.6</v>
@@ -13131,14 +12466,14 @@
     </row>
     <row r="180" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B180" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>0.285714285714286</v>
@@ -13152,14 +12487,14 @@
     </row>
     <row r="181" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B181" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>0.138297872340426</v>
@@ -13173,14 +12508,14 @@
     </row>
     <row r="182" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B182" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>0.379310344827586</v>
@@ -13194,14 +12529,14 @@
     </row>
     <row r="183" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B183" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>1</v>
@@ -13215,14 +12550,14 @@
     </row>
     <row r="184" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B184" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>0.6</v>
@@ -13236,14 +12571,14 @@
     </row>
     <row r="185" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B185" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>0.733333333333333</v>
@@ -13257,14 +12592,14 @@
     </row>
     <row r="186" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B186" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>0</v>
@@ -13278,14 +12613,14 @@
     </row>
     <row r="187" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B187" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>0</v>
@@ -13299,14 +12634,14 @@
     </row>
     <row r="188" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B188" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>0.428571428571429</v>
@@ -13320,14 +12655,14 @@
     </row>
     <row r="189" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B189" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>0</v>
@@ -13341,14 +12676,14 @@
     </row>
     <row r="190" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B190" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>0</v>
@@ -13362,14 +12697,14 @@
     </row>
     <row r="191" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B191" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>0</v>
@@ -13383,14 +12718,14 @@
     </row>
     <row r="192" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B192" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>0</v>
@@ -13404,14 +12739,14 @@
     </row>
     <row r="193" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B193" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>0.777777777777778</v>
@@ -13425,14 +12760,14 @@
     </row>
     <row r="194" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B194" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>0.321428571428571</v>
@@ -13446,14 +12781,14 @@
     </row>
     <row r="195" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B195" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>1</v>
@@ -13467,14 +12802,14 @@
     </row>
     <row r="196" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B196" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>0.666666666666667</v>
@@ -13488,14 +12823,14 @@
     </row>
     <row r="197" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B197" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>0.285714285714286</v>
@@ -13509,14 +12844,14 @@
     </row>
     <row r="198" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B198" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>0.273224043715847</v>
@@ -13530,14 +12865,14 @@
     </row>
     <row r="199" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B199" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>0.288888888888889</v>
@@ -13551,14 +12886,14 @@
     </row>
     <row r="200" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B200" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>0.954545454545455</v>
@@ -13572,14 +12907,14 @@
     </row>
     <row r="201" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B201" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>0.976190476190476</v>
@@ -13593,14 +12928,14 @@
     </row>
     <row r="202" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B202" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>0.972972972972973</v>
@@ -13614,14 +12949,14 @@
     </row>
     <row r="203" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B203" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>0</v>
@@ -13635,14 +12970,14 @@
     </row>
     <row r="204" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B204" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>0</v>
@@ -13656,14 +12991,14 @@
     </row>
     <row r="205" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B205" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>0</v>
@@ -13677,14 +13012,14 @@
     </row>
     <row r="206" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B206" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>0.153846153846154</v>
@@ -13698,14 +13033,14 @@
     </row>
     <row r="207" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B207" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>0.2</v>
@@ -13719,14 +13054,14 @@
     </row>
     <row r="208" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B208" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>0.537037037037037</v>
@@ -13740,14 +13075,14 @@
     </row>
     <row r="209" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B209" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>1</v>
@@ -13761,14 +13096,14 @@
     </row>
     <row r="210" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B210" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>0.666666666666667</v>
@@ -13782,14 +13117,14 @@
     </row>
     <row r="211" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B211" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>0.653061224489796</v>
@@ -13803,14 +13138,14 @@
     </row>
     <row r="212" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B212" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>0.166666666666667</v>
@@ -13824,14 +13159,14 @@
     </row>
     <row r="213" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B213" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>0.0344827586206897</v>
@@ -13845,14 +13180,14 @@
     </row>
     <row r="214" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B214" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>0</v>
@@ -13866,14 +13201,14 @@
     </row>
     <row r="215" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B215" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>1</v>
@@ -13887,14 +13222,14 @@
     </row>
     <row r="216" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B216" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>0</v>
@@ -13908,14 +13243,14 @@
     </row>
     <row r="217" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B217" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>0</v>
@@ -13929,14 +13264,14 @@
     </row>
     <row r="218" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B218" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>0</v>
@@ -13950,14 +13285,14 @@
     </row>
     <row r="219" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B219" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>0</v>
@@ -13971,14 +13306,14 @@
     </row>
     <row r="220" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B220" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>0</v>
@@ -13992,14 +13327,14 @@
     </row>
     <row r="221" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B221" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>0</v>
@@ -14013,14 +13348,14 @@
     </row>
     <row r="222" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B222" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>0</v>
@@ -14034,14 +13369,14 @@
     </row>
     <row r="223" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B223" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>0</v>
@@ -14055,14 +13390,14 @@
     </row>
     <row r="224" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B224" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>0</v>
@@ -14076,14 +13411,14 @@
     </row>
     <row r="225" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B225" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>0</v>
@@ -14097,14 +13432,14 @@
     </row>
     <row r="226" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B226" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>0</v>
@@ -14118,14 +13453,14 @@
     </row>
     <row r="227" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B227" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>0</v>
@@ -14139,14 +13474,14 @@
     </row>
     <row r="228" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B228" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>0</v>
@@ -14160,14 +13495,14 @@
     </row>
     <row r="229" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B229" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>0</v>
@@ -14181,14 +13516,14 @@
     </row>
     <row r="230" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B230" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>0</v>
@@ -14202,14 +13537,14 @@
     </row>
     <row r="231" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B231" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>0.272727272727273</v>
@@ -14223,14 +13558,14 @@
     </row>
     <row r="232" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B232" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>0.254901960784314</v>
@@ -14244,14 +13579,14 @@
     </row>
     <row r="233" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B233" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>0.276595744680851</v>
@@ -14265,14 +13600,14 @@
     </row>
     <row r="234" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B234" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D234" s="0" t="n">
         <v>1</v>
@@ -14286,14 +13621,14 @@
     </row>
     <row r="235" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B235" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D235" s="0" t="n">
         <v>0</v>
@@ -14307,14 +13642,14 @@
     </row>
     <row r="236" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B236" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D236" s="0" t="n">
         <v>0</v>
@@ -14328,14 +13663,14 @@
     </row>
     <row r="237" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B237" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D237" s="0" t="n">
         <v>0.857142857142857</v>
@@ -14349,14 +13684,14 @@
     </row>
     <row r="238" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B238" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D238" s="0" t="n">
         <v>0.857142857142857</v>
@@ -14370,14 +13705,14 @@
     </row>
     <row r="239" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B239" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D239" s="0" t="n">
         <v>1</v>
@@ -14391,14 +13726,14 @@
     </row>
     <row r="240" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B240" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D240" s="0" t="n">
         <v>0.166666666666667</v>
@@ -14412,14 +13747,14 @@
     </row>
     <row r="241" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B241" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D241" s="0" t="n">
         <v>1</v>
@@ -14433,14 +13768,14 @@
     </row>
     <row r="242" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B242" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D242" s="0" t="n">
         <v>1</v>
@@ -14454,14 +13789,14 @@
     </row>
     <row r="243" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B243" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D243" s="0" t="n">
         <v>1</v>
@@ -14475,14 +13810,14 @@
     </row>
     <row r="244" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B244" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D244" s="0" t="n">
         <v>1</v>
@@ -14496,14 +13831,14 @@
     </row>
     <row r="245" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D245" s="0" t="n">
         <v>1</v>
@@ -14517,14 +13852,14 @@
     </row>
     <row r="246" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B246" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D246" s="0" t="n">
         <v>0.5</v>
@@ -14538,14 +13873,14 @@
     </row>
     <row r="247" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B247" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D247" s="0" t="n">
         <v>1</v>
@@ -14559,14 +13894,14 @@
     </row>
     <row r="248" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B248" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D248" s="0" t="n">
         <v>1</v>
@@ -14580,14 +13915,14 @@
     </row>
     <row r="249" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B249" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D249" s="0" t="n">
         <v>0</v>
@@ -14601,14 +13936,14 @@
     </row>
     <row r="250" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B250" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D250" s="0" t="n">
         <v>0.714285714285714</v>
@@ -14622,14 +13957,14 @@
     </row>
     <row r="251" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B251" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D251" s="0" t="n">
         <v>0</v>
@@ -14643,14 +13978,14 @@
     </row>
     <row r="252" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B252" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D252" s="0" t="n">
         <v>0.769230769230769</v>
@@ -14664,14 +13999,14 @@
     </row>
     <row r="253" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B253" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D253" s="0" t="n">
         <v>0.833333333333333</v>
@@ -14685,14 +14020,14 @@
     </row>
     <row r="254" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B254" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D254" s="0" t="n">
         <v>0</v>
@@ -14706,14 +14041,14 @@
     </row>
     <row r="255" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B255" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D255" s="0" t="n">
         <v>1</v>
@@ -14727,14 +14062,14 @@
     </row>
     <row r="256" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B256" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D256" s="0" t="n">
         <v>1</v>
@@ -14748,14 +14083,14 @@
     </row>
     <row r="257" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B257" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D257" s="0" t="n">
         <v>1</v>
@@ -14769,14 +14104,14 @@
     </row>
     <row r="258" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B258" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D258" s="0" t="n">
         <v>1</v>
@@ -14790,14 +14125,14 @@
     </row>
     <row r="259" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B259" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D259" s="0" t="n">
         <v>0</v>
@@ -14811,14 +14146,14 @@
     </row>
     <row r="260" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B260" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D260" s="0" t="n">
         <v>0</v>
@@ -14832,14 +14167,14 @@
     </row>
     <row r="261" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B261" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D261" s="0" t="n">
         <v>1</v>
@@ -14853,14 +14188,14 @@
     </row>
     <row r="262" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B262" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D262" s="0" t="n">
         <v>0</v>
@@ -14874,14 +14209,14 @@
     </row>
     <row r="263" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B263" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D263" s="0" t="n">
         <v>0.428571428571429</v>
@@ -14895,14 +14230,14 @@
     </row>
     <row r="264" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B264" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D264" s="0" t="n">
         <v>0.428571428571429</v>
@@ -14916,14 +14251,14 @@
     </row>
     <row r="265" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B265" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D265" s="0" t="n">
         <v>0</v>
@@ -14937,14 +14272,14 @@
     </row>
     <row r="266" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B266" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D266" s="0" t="n">
         <v>0.6</v>
@@ -14958,14 +14293,14 @@
     </row>
     <row r="267" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B267" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D267" s="0" t="n">
         <v>0</v>
@@ -14979,14 +14314,14 @@
     </row>
     <row r="268" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D268" s="0" t="n">
         <v>0.5</v>
@@ -15000,14 +14335,14 @@
     </row>
     <row r="269" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B269" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D269" s="0" t="n">
         <v>0.166666666666667</v>
@@ -15021,14 +14356,14 @@
     </row>
     <row r="270" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B270" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D270" s="0" t="n">
         <v>0.5</v>
@@ -15042,14 +14377,14 @@
     </row>
     <row r="271" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B271" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D271" s="0" t="n">
         <v>0.333333333333333</v>
@@ -15063,14 +14398,14 @@
     </row>
     <row r="272" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B272" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D272" s="0" t="n">
         <v>1</v>
@@ -15084,14 +14419,14 @@
     </row>
     <row r="273" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B273" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D273" s="0" t="n">
         <v>0</v>
@@ -15105,14 +14440,14 @@
     </row>
     <row r="274" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B274" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D274" s="0" t="n">
         <v>0.5</v>
@@ -15126,14 +14461,14 @@
     </row>
     <row r="275" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B275" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D275" s="0" t="n">
         <v>0.333333333333333</v>
@@ -15147,14 +14482,14 @@
     </row>
     <row r="276" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B276" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D276" s="0" t="n">
         <v>0.166666666666667</v>
@@ -15168,14 +14503,14 @@
     </row>
     <row r="277" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B277" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D277" s="0" t="n">
         <v>1</v>
@@ -15189,14 +14524,14 @@
     </row>
     <row r="278" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B278" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D278" s="0" t="n">
         <v>0.5</v>
@@ -15210,14 +14545,14 @@
     </row>
     <row r="279" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B279" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D279" s="0" t="n">
         <v>1</v>
@@ -15231,14 +14566,14 @@
     </row>
     <row r="280" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B280" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D280" s="0" t="n">
         <v>0</v>
@@ -15252,14 +14587,14 @@
     </row>
     <row r="281" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B281" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D281" s="0" t="n">
         <v>0</v>
@@ -15273,14 +14608,14 @@
     </row>
     <row r="282" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B282" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D282" s="0" t="n">
         <v>0</v>
@@ -15294,14 +14629,14 @@
     </row>
     <row r="283" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B283" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D283" s="0" t="n">
         <v>1</v>
@@ -15315,14 +14650,14 @@
     </row>
     <row r="284" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B284" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D284" s="0" t="n">
         <v>1</v>
@@ -15336,14 +14671,14 @@
     </row>
     <row r="285" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B285" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D285" s="0" t="n">
         <v>0.03125</v>
@@ -15357,14 +14692,14 @@
     </row>
     <row r="286" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B286" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D286" s="0" t="n">
         <v>0.0294117647058823</v>
@@ -15378,14 +14713,14 @@
     </row>
     <row r="287" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B287" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D287" s="0" t="n">
         <v>0.0461538461538462</v>
@@ -15399,14 +14734,14 @@
     </row>
     <row r="288" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B288" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D288" s="0" t="n">
         <v>0</v>
@@ -15420,14 +14755,14 @@
     </row>
     <row r="289" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B289" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D289" s="0" t="n">
         <v>0</v>
@@ -15441,14 +14776,14 @@
     </row>
     <row r="290" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B290" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D290" s="0" t="n">
         <v>0</v>
@@ -15462,14 +14797,14 @@
     </row>
     <row r="291" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B291" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D291" s="0" t="n">
         <v>0</v>
@@ -15483,14 +14818,14 @@
     </row>
     <row r="292" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B292" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D292" s="0" t="n">
         <v>0</v>
@@ -15504,14 +14839,14 @@
     </row>
     <row r="293" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B293" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D293" s="0" t="n">
         <v>0</v>
@@ -15525,14 +14860,14 @@
     </row>
     <row r="294" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B294" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D294" s="0" t="n">
         <v>0.188405797101449</v>
@@ -15546,14 +14881,14 @@
     </row>
     <row r="295" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B295" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D295" s="0" t="n">
         <v>0.6</v>
@@ -15567,14 +14902,14 @@
     </row>
     <row r="296" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B296" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D296" s="0" t="n">
         <v>1</v>
@@ -15588,14 +14923,14 @@
     </row>
     <row r="297" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B297" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D297" s="0" t="n">
         <v>0.8</v>
@@ -15609,14 +14944,14 @@
     </row>
     <row r="298" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B298" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D298" s="0" t="n">
         <v>0.666666666666667</v>
@@ -15630,14 +14965,14 @@
     </row>
     <row r="299" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B299" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D299" s="0" t="n">
         <v>1</v>
@@ -15651,14 +14986,14 @@
     </row>
     <row r="300" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B300" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D300" s="0" t="n">
         <v>0.181818181818182</v>
@@ -15672,14 +15007,14 @@
     </row>
     <row r="301" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B301" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D301" s="0" t="n">
         <v>1</v>
@@ -15693,14 +15028,14 @@
     </row>
     <row r="302" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B302" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D302" s="0" t="n">
         <v>0.0697674418604651</v>
@@ -15714,14 +15049,14 @@
     </row>
     <row r="303" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B303" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D303" s="0" t="n">
         <v>0.1</v>
@@ -15735,14 +15070,14 @@
     </row>
     <row r="304" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B304" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D304" s="0" t="n">
         <v>0.186046511627907</v>
@@ -15756,14 +15091,14 @@
     </row>
     <row r="305" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B305" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D305" s="0" t="n">
         <v>0</v>
@@ -15777,14 +15112,14 @@
     </row>
     <row r="306" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B306" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D306" s="0" t="n">
         <v>0.777777777777778</v>
@@ -15798,14 +15133,14 @@
     </row>
     <row r="307" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B307" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D307" s="0" t="n">
         <v>1</v>
@@ -15819,14 +15154,14 @@
     </row>
     <row r="308" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B308" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D308" s="0" t="n">
         <v>1</v>
@@ -15840,14 +15175,14 @@
     </row>
     <row r="309" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B309" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D309" s="0" t="n">
         <v>0.0222222222222222</v>
@@ -15861,14 +15196,14 @@
     </row>
     <row r="310" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B310" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D310" s="0" t="n">
         <v>0.2</v>
@@ -15882,14 +15217,14 @@
     </row>
     <row r="311" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B311" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D311" s="0" t="n">
         <v>1</v>
@@ -15903,14 +15238,14 @@
     </row>
     <row r="312" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B312" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D312" s="0" t="n">
         <v>0</v>
@@ -15924,14 +15259,14 @@
     </row>
     <row r="313" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B313" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D313" s="0" t="n">
         <v>1</v>
@@ -15945,14 +15280,14 @@
     </row>
     <row r="314" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B314" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D314" s="0" t="n">
         <v>0.5</v>
@@ -15966,14 +15301,14 @@
     </row>
     <row r="315" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B315" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D315" s="0" t="n">
         <v>0.5</v>
@@ -15987,14 +15322,14 @@
     </row>
     <row r="316" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B316" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D316" s="0" t="n">
         <v>0.5</v>
@@ -16008,14 +15343,14 @@
     </row>
     <row r="317" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B317" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D317" s="0" t="n">
         <v>0</v>
@@ -16029,14 +15364,14 @@
     </row>
     <row r="318" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B318" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D318" s="0" t="n">
         <v>0</v>
@@ -16050,14 +15385,14 @@
     </row>
     <row r="319" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B319" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D319" s="0" t="n">
         <v>0.296875</v>
@@ -16071,14 +15406,14 @@
     </row>
     <row r="320" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B320" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D320" s="0" t="n">
         <v>1</v>
@@ -16092,14 +15427,14 @@
     </row>
     <row r="321" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B321" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D321" s="0" t="n">
         <v>0.5</v>
@@ -16113,14 +15448,14 @@
     </row>
     <row r="322" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B322" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D322" s="0" t="n">
         <v>0.5</v>
@@ -16134,14 +15469,14 @@
     </row>
     <row r="323" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B323" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D323" s="0" t="n">
         <v>0.75</v>
@@ -16155,14 +15490,14 @@
     </row>
     <row r="324" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B324" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D324" s="0" t="n">
         <v>0</v>
@@ -16176,14 +15511,14 @@
     </row>
     <row r="325" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B325" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D325" s="0" t="n">
         <v>0</v>
@@ -16197,14 +15532,14 @@
     </row>
     <row r="326" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B326" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D326" s="0" t="n">
         <v>0.375</v>
@@ -16218,14 +15553,14 @@
     </row>
     <row r="327" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B327" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D327" s="0" t="n">
         <v>0.5</v>
@@ -16239,14 +15574,14 @@
     </row>
     <row r="328" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B328" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D328" s="0" t="n">
         <v>0</v>
@@ -16260,14 +15595,14 @@
     </row>
     <row r="329" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B329" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D329" s="0" t="n">
         <v>0.294117647058824</v>
@@ -16281,14 +15616,14 @@
     </row>
     <row r="330" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B330" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D330" s="0" t="n">
         <v>0</v>
@@ -16302,14 +15637,14 @@
     </row>
     <row r="331" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B331" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D331" s="0" t="n">
         <v>0</v>
@@ -16323,14 +15658,14 @@
     </row>
     <row r="332" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B332" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D332" s="0" t="n">
         <v>0</v>
@@ -16344,14 +15679,14 @@
     </row>
     <row r="333" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B333" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D333" s="0" t="n">
         <v>0.08</v>
@@ -16365,14 +15700,14 @@
     </row>
     <row r="334" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B334" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D334" s="0" t="n">
         <v>0</v>
@@ -16386,14 +15721,14 @@
     </row>
     <row r="335" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B335" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D335" s="0" t="n">
         <v>0</v>
@@ -16407,14 +15742,14 @@
     </row>
     <row r="336" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B336" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D336" s="0" t="n">
         <v>0</v>
@@ -16428,14 +15763,14 @@
     </row>
     <row r="337" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B337" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D337" s="0" t="n">
         <v>0.5</v>
@@ -16449,14 +15784,14 @@
     </row>
     <row r="338" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B338" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D338" s="0" t="n">
         <v>0.0526315789473684</v>
@@ -16470,14 +15805,14 @@
     </row>
     <row r="339" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B339" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D339" s="0" t="n">
         <v>0.214285714285714</v>
@@ -16491,14 +15826,14 @@
     </row>
     <row r="340" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B340" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D340" s="0" t="n">
         <v>0.25</v>
@@ -16512,14 +15847,14 @@
     </row>
     <row r="341" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B341" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D341" s="0" t="n">
         <v>0.615384615384615</v>
@@ -16533,14 +15868,14 @@
     </row>
     <row r="342" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B342" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D342" s="0" t="n">
         <v>0.625</v>
@@ -16554,14 +15889,14 @@
     </row>
     <row r="343" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B343" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D343" s="0" t="n">
         <v>0.5</v>
@@ -16575,14 +15910,14 @@
     </row>
     <row r="344" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B344" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D344" s="0" t="n">
         <v>0.25</v>
@@ -16596,14 +15931,14 @@
     </row>
     <row r="345" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B345" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D345" s="0" t="n">
         <v>0.333333333333333</v>
@@ -16617,14 +15952,14 @@
     </row>
     <row r="346" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B346" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D346" s="0" t="n">
         <v>0.5</v>
@@ -16638,14 +15973,14 @@
     </row>
     <row r="347" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B347" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D347" s="0" t="n">
         <v>0.333333333333333</v>
@@ -16659,14 +15994,14 @@
     </row>
     <row r="348" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B348" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D348" s="0" t="n">
         <v>0.222222222222222</v>
@@ -16680,14 +16015,14 @@
     </row>
     <row r="349" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B349" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D349" s="0" t="n">
         <v>0.5</v>
@@ -16701,14 +16036,14 @@
     </row>
     <row r="350" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B350" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D350" s="0" t="n">
         <v>0.666666666666667</v>
@@ -16722,14 +16057,14 @@
     </row>
     <row r="351" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B351" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D351" s="0" t="n">
         <v>0.321428571428571</v>
@@ -16743,14 +16078,14 @@
     </row>
     <row r="352" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B352" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D352" s="0" t="n">
         <v>0</v>
@@ -16764,14 +16099,14 @@
     </row>
     <row r="353" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B353" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D353" s="0" t="n">
         <v>1</v>
@@ -16785,14 +16120,14 @@
     </row>
     <row r="354" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B354" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D354" s="0" t="n">
         <v>0</v>
@@ -16806,14 +16141,14 @@
     </row>
     <row r="355" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B355" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D355" s="0" t="n">
         <v>0.777777777777778</v>
@@ -16827,14 +16162,14 @@
     </row>
     <row r="356" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B356" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D356" s="0" t="n">
         <v>1</v>
@@ -16848,14 +16183,14 @@
     </row>
     <row r="357" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B357" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D357" s="0" t="n">
         <v>0.366666666666667</v>
@@ -16869,14 +16204,14 @@
     </row>
     <row r="358" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B358" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D358" s="0" t="n">
         <v>0.333333333333333</v>
@@ -16890,14 +16225,14 @@
     </row>
     <row r="359" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B359" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D359" s="0" t="n">
         <v>0.75</v>
@@ -16911,14 +16246,14 @@
     </row>
     <row r="360" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B360" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D360" s="0" t="n">
         <v>0</v>
@@ -16932,14 +16267,14 @@
     </row>
     <row r="361" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B361" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D361" s="0" t="n">
         <v>0.294117647058824</v>
@@ -16953,14 +16288,14 @@
     </row>
     <row r="362" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B362" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D362" s="0" t="n">
         <v>0</v>
@@ -16974,14 +16309,14 @@
     </row>
     <row r="363" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B363" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D363" s="0" t="n">
         <v>0</v>
@@ -16995,14 +16330,14 @@
     </row>
     <row r="364" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B364" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D364" s="0" t="n">
         <v>1</v>
@@ -17016,14 +16351,14 @@
     </row>
     <row r="365" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B365" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D365" s="0" t="n">
         <v>0</v>
@@ -17037,14 +16372,14 @@
     </row>
     <row r="366" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B366" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D366" s="0" t="n">
         <v>0.183908045977011</v>
@@ -17058,14 +16393,14 @@
     </row>
     <row r="367" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B367" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D367" s="0" t="n">
         <v>0</v>
@@ -17079,14 +16414,14 @@
     </row>
     <row r="368" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B368" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D368" s="0" t="n">
         <v>0</v>
@@ -17100,14 +16435,14 @@
     </row>
     <row r="369" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B369" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D369" s="0" t="n">
         <v>0.5</v>
@@ -17121,14 +16456,14 @@
     </row>
     <row r="370" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B370" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D370" s="0" t="n">
         <v>0.285714285714286</v>
@@ -17142,14 +16477,14 @@
     </row>
     <row r="371" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B371" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D371" s="0" t="n">
         <v>1</v>
@@ -17163,14 +16498,14 @@
     </row>
     <row r="372" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B372" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D372" s="0" t="n">
         <v>0</v>
@@ -17184,14 +16519,14 @@
     </row>
     <row r="373" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B373" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D373" s="0" t="n">
         <v>0</v>
@@ -17205,14 +16540,14 @@
     </row>
     <row r="374" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B374" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D374" s="0" t="n">
         <v>0.321428571428571</v>
@@ -17226,14 +16561,14 @@
     </row>
     <row r="375" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B375" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D375" s="0" t="n">
         <v>1</v>
@@ -17247,14 +16582,14 @@
     </row>
     <row r="376" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B376" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D376" s="0" t="n">
         <v>0.555555555555556</v>
@@ -17268,14 +16603,14 @@
     </row>
     <row r="377" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B377" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D377" s="0" t="n">
         <v>0.666666666666667</v>
@@ -17289,14 +16624,14 @@
     </row>
     <row r="378" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B378" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D378" s="0" t="n">
         <v>0.8125</v>
@@ -17310,14 +16645,14 @@
     </row>
     <row r="379" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B379" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D379" s="0" t="n">
         <v>0.875</v>
@@ -17331,14 +16666,14 @@
     </row>
     <row r="380" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B380" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D380" s="0" t="n">
         <v>0.601694915254237</v>
@@ -17352,14 +16687,14 @@
     </row>
     <row r="381" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B381" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D381" s="0" t="n">
         <v>1</v>
@@ -17390,10 +16725,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="1" sqref="B2:B4 G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -17403,16 +16738,16 @@
         <v>220</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>189</v>
@@ -17420,20 +16755,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
